--- a/桃太郎最強伝説/桃太郎最強伝説/Book5.xlsx
+++ b/桃太郎最強伝説/桃太郎最強伝説/Book5.xlsx
@@ -90,7 +90,100 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -432,7 +525,7 @@
   <dimension ref="A1:BD56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
-      <selection activeCell="AI11" sqref="AI11"/>
+      <selection activeCell="AD31" sqref="AD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2739,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="AD14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>1</v>
@@ -2909,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="AD15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>1</v>
@@ -3079,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="AD16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>1</v>
@@ -3249,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="AD17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>1</v>
@@ -3419,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="AD18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>1</v>
@@ -3589,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="AD19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>1</v>
@@ -3759,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="AD20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>1</v>
@@ -3929,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="AD21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>1</v>
@@ -4099,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="AD22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>1</v>
@@ -4269,7 +4362,7 @@
         <v>3</v>
       </c>
       <c r="AD23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE23" s="1">
         <v>1</v>
@@ -9963,36 +10056,36 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BD56">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC23">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="AC23:AD23">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:AX55">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X7:AJ17">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="X7:AJ17 AD14:AD23">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z34:AG42">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>

--- a/桃太郎最強伝説/桃太郎最強伝説/Book5.xlsx
+++ b/桃太郎最強伝説/桃太郎最強伝説/Book5.xlsx
@@ -90,100 +90,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -525,7 +432,7 @@
   <dimension ref="A1:BD56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
-      <selection activeCell="AD31" sqref="AD31"/>
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2149,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AD10" s="1">
         <v>0</v>
@@ -9119,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AD51" s="1">
         <v>0</v>
@@ -10056,36 +9963,36 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BD56">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC23:AD23">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:AX55">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7:AJ17 AD14:AD23">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z34:AG42">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>

--- a/桃太郎最強伝説/桃太郎最強伝説/Book5.xlsx
+++ b/桃太郎最強伝説/桃太郎最強伝説/Book5.xlsx
@@ -432,7 +432,7 @@
   <dimension ref="A1:BD56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+      <selection activeCell="AK47" sqref="AK47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="R27" s="1">
         <v>0</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="AP27" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AQ27" s="1">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W32" s="1">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL32" s="1">
         <v>0</v>
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="R39" s="1">
         <v>0</v>
@@ -7025,7 +7025,7 @@
         <v>0</v>
       </c>
       <c r="AP39" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AQ39" s="1">
         <v>0</v>
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W46" s="1">
         <v>0</v>
@@ -8200,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL46" s="1">
         <v>0</v>
@@ -8820,7 +8820,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="R50" s="1">
         <v>0</v>
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="AP50" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AQ50" s="1">
         <v>0</v>
